--- a/Resources/iOS release date.xlsx
+++ b/Resources/iOS release date.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12940"/>
+    <workbookView windowWidth="29400" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>16.0</t>
+  </si>
+  <si>
+    <t>17.3</t>
   </si>
 </sst>
 </file>
@@ -683,14 +686,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1030,10 +1030,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="2"/>
@@ -1046,343 +1046,343 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>41899</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>41932</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>8.1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>42072</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>8.2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>42102</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>8.3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>42185</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>8.4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>42263</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>42298</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>9.1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>42346</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>9.2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>42450</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>9.3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>42626</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>42667</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>10.1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>42716</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>10.2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>42821</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>10.3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>42997</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>43039</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>11.1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>43083</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>11.2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>43189</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>11.3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>43250</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>11.4</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>43361</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>43404</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>12.1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>43550</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>12.2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>43599</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>12.3</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>43669</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>12.4</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>43728</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>43733</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>13.1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>43767</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>13.2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>43810</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>13.3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>43915</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>13.4</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>43972</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>13.5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>44028</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>13.6</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>44076</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>13.7</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>44091</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>44125</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>14.1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>44141</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>14.2</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>44180</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>14.3</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>44223</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>14.4</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>44313</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>14.5</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>44341</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>14.6</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>44397</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>14.7</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>44453</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>14.8</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>44460</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>44495</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>15.1</v>
       </c>
     </row>
@@ -1395,10 +1395,10 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>44590</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>15.3</v>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       <c r="A46" s="1">
         <v>44635</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>15.4</v>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       <c r="A47" s="1">
         <v>44698</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>15.5</v>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       <c r="A48" s="1">
         <v>44763</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>15.6</v>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       <c r="A49" s="1">
         <v>44817</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>15.7</v>
       </c>
     </row>
@@ -1438,16 +1438,16 @@
       <c r="A50" s="1">
         <v>44817</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="6"/>
+      <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1">
         <v>44859</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="6">
         <v>16.1</v>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       <c r="A52" s="1">
         <v>44919</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="6">
         <v>16.2</v>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       <c r="A53" s="1">
         <v>44950</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="6">
         <v>16.3</v>
       </c>
     </row>
@@ -1471,31 +1471,31 @@
       <c r="A54" s="1">
         <v>45013</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="6">
         <v>16.4</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="8">
+      <c r="A55" s="7">
         <v>45065</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="6">
         <v>16.5</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="8">
+      <c r="A56" s="7">
         <v>45132</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="6">
         <v>16.6</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="8">
+      <c r="A57" s="7">
         <v>45191</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="6">
         <v>16.7</v>
       </c>
     </row>
@@ -1503,24 +1503,32 @@
       <c r="A58" s="1">
         <v>45188</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="6">
         <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="8">
+      <c r="A59" s="7">
         <v>45225</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="6">
         <v>17.1</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="8">
+      <c r="A60" s="7">
         <v>45272</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="6">
         <v>17.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
+        <v>45314</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/iOS release date.xlsx
+++ b/Resources/iOS release date.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12660"/>
+    <workbookView windowHeight="15160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -50,6 +63,21 @@
   </si>
   <si>
     <t>17.3</t>
+  </si>
+  <si>
+    <t>17.4</t>
+  </si>
+  <si>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>17.6</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>18.1</t>
   </si>
 </sst>
 </file>
@@ -1030,10 +1058,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="2"/>
@@ -1531,6 +1559,46 @@
         <v>11</v>
       </c>
     </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>45552</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>45594</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Resources/iOS release date.xlsx
+++ b/Resources/iOS release date.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/borancui/PycharmProjects/PredictiOSVersionRelease/Resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AA9E6A-DDD2-3E4A-9545-4D931E09713C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15160"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -78,19 +84,17 @@
   </si>
   <si>
     <t>18.1</t>
+  </si>
+  <si>
+    <t>18.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,352 +117,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -466,262 +148,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -739,62 +179,21 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1052,19 +451,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.5" style="2" customWidth="1"/>
@@ -1099,7 +498,7 @@
         <v>42072</v>
       </c>
       <c r="B4" s="4">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1107,7 +506,7 @@
         <v>42102</v>
       </c>
       <c r="B5" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1139,7 +538,7 @@
         <v>42346</v>
       </c>
       <c r="B9" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1147,7 +546,7 @@
         <v>42450</v>
       </c>
       <c r="B10" s="4">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1171,7 +570,7 @@
         <v>42716</v>
       </c>
       <c r="B13" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1454,7 +853,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>44817</v>
       </c>
@@ -1471,15 +870,15 @@
       </c>
       <c r="C50" s="5"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>44859</v>
       </c>
       <c r="B51" s="6">
-        <v>16.1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>44919</v>
       </c>
@@ -1487,7 +886,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>44950</v>
       </c>
@@ -1495,15 +894,15 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>45013</v>
       </c>
       <c r="B54" s="6">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="7">
         <v>45065</v>
       </c>
@@ -1511,15 +910,15 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56" s="7">
         <v>45132</v>
       </c>
       <c r="B56" s="6">
-        <v>16.6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="7">
         <v>45191</v>
       </c>
@@ -1527,7 +926,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>45188</v>
       </c>
@@ -1535,15 +934,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3">
       <c r="A59" s="7">
         <v>45225</v>
       </c>
       <c r="B59" s="6">
-        <v>17.1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="7">
         <v>45272</v>
       </c>
@@ -1551,7 +950,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>45314</v>
       </c>
@@ -1559,7 +958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>45357</v>
       </c>
@@ -1567,7 +966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>45426</v>
       </c>
@@ -1575,7 +974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>45503</v>
       </c>
@@ -1599,10 +998,18 @@
         <v>16</v>
       </c>
     </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
+        <v>45638</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="B50" numberStoredAsText="1"/>
   </ignoredErrors>
